--- a/PWS/PWWS/excel_files_bay/data3.xlsx
+++ b/PWS/PWWS/excel_files_bay/data3.xlsx
@@ -525,17 +525,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sicilia</t>
+          <t>Sancheti Belcastle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yellow blossoms </t>
+          <t>PGD Pinnacle</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ghorpadi</t>
+          <t>mundhwa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,12 +550,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>('260', '260')</t>
+          <t>('100', '100')</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sancheti Belcastle</t>
+          <t>Sicilia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PGD Pinnacle</t>
+          <t xml:space="preserve">Yellow blossoms </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mundhwa</t>
+          <t>ghorpadi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>('100', '100')</t>
+          <t>('260', '260')</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Konark Krish</t>
+          <t>ARV Royale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vihana</t>
+          <t>Dreams estate</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>keshavnagar</t>
+          <t>hadapsar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>('150', '200')</t>
+          <t>('200', '300')</t>
         </is>
       </c>
     </row>
@@ -651,13 +651,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Godrej Infinity</t>
+          <t>Amanora</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>keshavnagar</t>
+          <t>hadapsar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>('1200', None)</t>
+          <t>('1500', None)</t>
         </is>
       </c>
     </row>
@@ -689,13 +689,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amanora</t>
+          <t>Godrej Infinity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>hadapsar</t>
+          <t>keshavnagar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>('1500', None)</t>
+          <t>('1200', None)</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kumar Kruti</t>
+          <t>Green County</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Landmark Greens</t>
+          <t>Majestic aqua</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>kalyaninagar</t>
+          <t>phursungi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>('400', '200')</t>
+          <t>('100', '450')</t>
         </is>
       </c>
     </row>
@@ -769,17 +769,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dreams estate</t>
+          <t>Konark Krish</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ARV Royale</t>
+          <t>Vihana</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>hadapsar</t>
+          <t>keshavnagar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>('Worst', 'Medium')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>('300', '200')</t>
+          <t>('150', '200')</t>
         </is>
       </c>
     </row>
@@ -811,10 +811,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Landmark Gardens</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Kumar Kruti</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Landmark Greens</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>kalyaninagar</t>
@@ -832,12 +836,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>('200', None)</t>
+          <t>('400', '200')</t>
         </is>
       </c>
     </row>
@@ -849,13 +853,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yellow Blosson</t>
+          <t>Landmark Gardens</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ghorpadi</t>
+          <t>kalyaninagar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -870,12 +874,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>('Worst', None)</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>('250', None)</t>
+          <t>('200', None)</t>
         </is>
       </c>
     </row>
@@ -887,17 +891,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chaurang Terrace</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Green County</t>
-        </is>
-      </c>
+          <t>Yellow Blosson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>phursungi</t>
+          <t>ghorpadi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -912,12 +912,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>('Worst', 'Medium')</t>
+          <t>('Worst', None)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>('100', '100')</t>
+          <t>('250', None)</t>
         </is>
       </c>
     </row>
@@ -967,22 +967,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mahadkar residency </t>
+          <t>Ivory Estate</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Westend village </t>
+          <t>DSK Gandhkosh</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>bhusari colony</t>
+          <t>baner</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>('150', '200')</t>
+          <t>('500', '280')</t>
         </is>
       </c>
     </row>
@@ -1009,18 +1009,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shantikunj Soc</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Life Montage</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>camp</t>
+          <t>sus</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1030,12 +1034,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>('Worst', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>('100', None)</t>
+          <t>('400', '320')</t>
         </is>
       </c>
     </row>
@@ -1047,22 +1051,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mahatma Soc</t>
+          <t xml:space="preserve">Antelia </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sigma One</t>
+          <t>Nyati Equatorial</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>kothrud</t>
+          <t>bavdhan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1077,7 +1081,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>('300', '132')</t>
+          <t>('200', '300')</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1093,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sun Empire</t>
+          <t>Kalpataru Splendour</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sun City</t>
+          <t>Millenium Acropolis</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sinhagad road</t>
+          <t>wakad</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1119,7 +1123,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>('450', '400')</t>
+          <t>('327', '181')</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1135,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sun Universe </t>
+          <t>Blue Ridge</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sudatta sankul</t>
+          <t>Life Republic 7</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>sinhagad road</t>
+          <t>hinjewadi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1156,12 +1160,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Angel', 'Angel')</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>('750', '180')</t>
+          <t>('800', '850')</t>
         </is>
       </c>
     </row>
@@ -1173,18 +1177,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aditya Garden City</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Roseland residency</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rose Icon</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>warje</t>
+          <t>pimple saudagar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>West</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1194,12 +1202,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>('Angel', None)</t>
+          <t>('Angel', 'Angel')</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>('1014', None)</t>
+          <t>('900', '1000')</t>
         </is>
       </c>
     </row>
@@ -1253,17 +1261,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mont Vert</t>
+          <t>Aditya Comfort Zon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kumar Picadilly</t>
+          <t>Supreme palms</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>wakad</t>
+          <t>baner</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1283,7 +1291,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>('400', '250')</t>
+          <t>('550', '250')</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1303,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sudarshan </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pinnac Anand </t>
-        </is>
-      </c>
+          <t>Yogiraj Foundation</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>karvenagar</t>
+          <t>talegao</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1320,12 +1324,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>('84', '150')</t>
+          <t>('200', None)</t>
         </is>
       </c>
     </row>
@@ -1337,17 +1341,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kapil Abhijat</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Himali Soc</t>
-        </is>
-      </c>
+          <t>Forest trails</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>kothrud</t>
+          <t>bhugaon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>('250', '300')</t>
+          <t>('250', None)</t>
         </is>
       </c>
     </row>
@@ -1463,17 +1463,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Life Montage</t>
+          <t xml:space="preserve">Sudarshan </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Windows</t>
+          <t xml:space="preserve">Pinnac Anand </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>sus</t>
+          <t>karvenagar</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>('400', '320')</t>
+          <t>('84', '150')</t>
         </is>
       </c>
     </row>
@@ -1505,13 +1505,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Forest trails</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Kunal Aspiree</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Perfect 10</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>bhugaon</t>
+          <t>balewadi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1526,12 +1530,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>('250', None)</t>
+          <t>('200', '280')</t>
         </is>
       </c>
     </row>
@@ -1543,17 +1547,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kunal Aspiree</t>
+          <t>Mont Vert</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Perfect 10</t>
+          <t>Kumar Picadilly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>balewadi</t>
+          <t>wakad</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1573,7 +1577,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>('200', '280')</t>
+          <t>('400', '250')</t>
         </is>
       </c>
     </row>
@@ -1669,13 +1673,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Elementa</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Blue Ridge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Life Republic 7</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>wakad</t>
+          <t>hinjewadi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1690,12 +1698,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>('Angel', None)</t>
+          <t>('Angel', 'Angel')</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>('900', None)</t>
+          <t>('800', '850')</t>
         </is>
       </c>
     </row>
@@ -1707,17 +1715,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shivam Society</t>
+          <t>Ambience Antelia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rajveer Palace</t>
+          <t>Anant Shilp</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>pimple saudagar</t>
+          <t>bavdhan</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1737,7 +1745,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>('160', '200')</t>
+          <t>('200', '200')</t>
         </is>
       </c>
     </row>
@@ -1749,17 +1757,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S3 Lifestyle apartment</t>
+          <t>Iris</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JARVARI</t>
+          <t>Mont vert biaritz phase 1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>pimple saudagar</t>
+          <t>baner</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1779,7 +1787,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>('200', '317')</t>
+          <t>('200', '88')</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1799,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Millenium Acropolis</t>
+          <t>Gera Empress</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Park Ivory</t>
+          <t>Rohan leher</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>wakad</t>
+          <t>baner</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1821,7 +1829,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>('181', '450')</t>
+          <t>('200', '300')</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1846,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kalpataru Splendour</t>
+          <t>Lakshmi deep</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1858,12 +1866,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>('200', '327')</t>
+          <t>('200', '228')</t>
         </is>
       </c>
     </row>
@@ -1875,13 +1883,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Elementa</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>Blue Ridge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Life Republic 7</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>wakad</t>
+          <t>hinjewadi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1896,12 +1908,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>('Angel', None)</t>
+          <t>('Angel', 'Angel')</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>('900', None)</t>
+          <t>('800', '850')</t>
         </is>
       </c>
     </row>
@@ -1997,17 +2009,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mont Vert</t>
+          <t>Aditya Comfort Zon</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kumar Picadilly</t>
+          <t>Supreme palms</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>wakad</t>
+          <t>baner</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2027,7 +2039,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>('400', '250')</t>
+          <t>('550', '250')</t>
         </is>
       </c>
     </row>
@@ -2039,17 +2051,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sudarshan </t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pinnac Anand </t>
-        </is>
-      </c>
+          <t>Yogiraj Foundation</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>karvenagar</t>
+          <t>talegao</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2064,12 +2072,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>('84', '150')</t>
+          <t>('200', None)</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2089,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kapil Abhijat</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Himali Soc</t>
-        </is>
-      </c>
+          <t>Forest trails</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>kothrud</t>
+          <t>bhugaon</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2106,12 +2110,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>('250', '300')</t>
+          <t>('250', None)</t>
         </is>
       </c>
     </row>
@@ -2249,17 +2253,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Relicon Garden Grove</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Windsor COunty</t>
-        </is>
-      </c>
+          <t>Sai park</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ambegaon</t>
+          <t>katraj</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2274,12 +2274,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>('250', '200')</t>
+          <t>('150', None)</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vitthal Heritage</t>
+          <t>Relicon Garden Grove</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lake Vista</t>
+          <t>Windsor COunty</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>('250', '650')</t>
+          <t>('250', '200')</t>
         </is>
       </c>
     </row>
@@ -2333,13 +2333,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ajinkyatara</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Vitthal Heritage</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Lake Vista</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>narhe</t>
+          <t>ambegaon</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2354,12 +2358,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>('350', None)</t>
+          <t>('250', '650')</t>
         </is>
       </c>
     </row>
@@ -2371,13 +2375,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sai park</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Sai Mystique</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Astonia Royale</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>katraj</t>
+          <t>ambegaon</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2392,12 +2400,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>('150', None)</t>
+          <t>('325', '500')</t>
         </is>
       </c>
     </row>
@@ -2409,17 +2417,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Colori</t>
+          <t>Amit Bloomfield</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>38 Majestique</t>
+          <t>Sun Fantasy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>undri</t>
+          <t>ambegaon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2439,7 +2447,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>('250', '100')</t>
+          <t>('600', '150')</t>
         </is>
       </c>
     </row>
@@ -2451,17 +2459,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Amit Bloomfield</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Sun Fantasy</t>
-        </is>
-      </c>
+          <t>Ajinkyatara</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ambegaon</t>
+          <t>narhe</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2476,12 +2480,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>('600', '150')</t>
+          <t>('350', None)</t>
         </is>
       </c>
     </row>
@@ -2493,17 +2497,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Colori</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Siddhivinayak Manas</t>
+          <t>38 Majestique</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>dhayari</t>
+          <t>undri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2523,7 +2527,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>('400', '200')</t>
+          <t>('250', '100')</t>
         </is>
       </c>
     </row>
@@ -2535,17 +2539,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sai Mystique</t>
+          <t>Sundar sahawas</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Astonia Royale</t>
+          <t>Rajyog phase 2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ambegaon</t>
+          <t>dhayari</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2560,12 +2564,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Worst', 'Worst')</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>('325', '500')</t>
+          <t>('150', '100')</t>
         </is>
       </c>
     </row>
@@ -2577,12 +2581,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sundar sahawas</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Rajyog phase 2</t>
+          <t>Siddhivinayak Manas</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2602,12 +2606,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>('Worst', 'Worst')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>('150', '100')</t>
+          <t>('400', '200')</t>
         </is>
       </c>
     </row>
@@ -2683,17 +2687,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rakshak nagar 2</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Mountain Glory</t>
-        </is>
-      </c>
+          <t>Sai residency</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>lohegao</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>('400', '300')</t>
+          <t>('120', None)</t>
         </is>
       </c>
     </row>
@@ -2725,17 +2725,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Marvel Cerise</t>
+          <t>IVY Estate</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kumar Primavera</t>
+          <t>Jade Residency</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>wagholi</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>('300', '500')</t>
+          <t>('800', '300')</t>
         </is>
       </c>
     </row>
@@ -2767,12 +2767,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aeropolis</t>
+          <t>Pride Aashiyana</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Atria Soc</t>
+          <t>Goodwill 24 CHS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>('330', '330')</t>
+          <t>('450', '250')</t>
         </is>
       </c>
     </row>
@@ -2809,17 +2809,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gera Trinity Tower</t>
+          <t>Rohan Mithila- E1-E9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Alcon Renaissant</t>
+          <t>Rohan Mithila-A-Y</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>vimannagar</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>('250', '200')</t>
+          <t>('200', '200')</t>
         </is>
       </c>
     </row>
@@ -2851,17 +2851,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ivy Estate</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>IVY Estate</t>
-        </is>
-      </c>
+          <t>Forest County</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>wagholi</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2876,12 +2872,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>('800', '800')</t>
+          <t>('800', None)</t>
         </is>
       </c>
     </row>
@@ -2893,13 +2889,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Forest County</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>Ivy Estate</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>umang premier</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>wagholi</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2914,12 +2914,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>('800', None)</t>
+          <t>('800', '800')</t>
         </is>
       </c>
     </row>
@@ -2973,13 +2973,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sai residency</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>Anshul Kanvas</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Oxy Ultima</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>lohegao</t>
+          <t>wagholi</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2994,12 +2998,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>('120', None)</t>
+          <t>('150', '200')</t>
         </is>
       </c>
     </row>
@@ -3011,17 +3015,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rohan mithila A-Y</t>
+          <t>Tirupati Campus</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Little Millenium School</t>
+          <t>Nyati Environ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vimanagar</t>
+          <t>tingrenagar</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3036,12 +3040,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>('350', '0')</t>
+          <t>('200', '200')</t>
         </is>
       </c>
     </row>
@@ -3133,13 +3137,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>XERBIA</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Kumar Primrose</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alcon Renaissant </t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>chakan</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3154,12 +3162,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>('Angel', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>('1200', None)</t>
+          <t>('200', '200')</t>
         </is>
       </c>
     </row>
@@ -3171,17 +3179,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Kumar Primrose</t>
+          <t>Rohan mithila A-Y</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alcon Renaissant </t>
+          <t>Little Millenium School</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>vimanagar</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3196,12 +3204,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>('200', '200')</t>
+          <t>('350', '0')</t>
         </is>
       </c>
     </row>
@@ -3213,17 +3221,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Marvel citine</t>
+          <t xml:space="preserve">River Residency phase 3 </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nyati empire</t>
+          <t>Krystal City</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>moshi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3243,7 +3251,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>('200', '300')</t>
+          <t>('466', '300')</t>
         </is>
       </c>
     </row>
@@ -3255,17 +3263,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tirupati Campus</t>
+          <t>Ganga archadia</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nyati Environ</t>
+          <t>Rakshak nagar 2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>tingrenagar</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3285,7 +3293,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>('200', '200')</t>
+          <t>('150', '400')</t>
         </is>
       </c>
     </row>
@@ -3297,17 +3305,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rohan Mithila- E1-E9</t>
+          <t>Marvel citine</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Konark Nagar</t>
+          <t>Nyati empire</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vimannagar</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3339,13 +3347,13 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>XERBIA</t>
+          <t>Forest County</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>chakan</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3360,12 +3368,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>('Angel', None)</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>('1200', None)</t>
+          <t>('800', None)</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3385,13 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>River Residency</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Aishwaryam hamara</t>
-        </is>
-      </c>
+          <t>XERBIA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>moshi</t>
+          <t>chakan</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3402,12 +3406,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>('Angel', 'Angel')</t>
+          <t>('Angel', None)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>('1300', '1100')</t>
+          <t>('1200', None)</t>
         </is>
       </c>
     </row>
@@ -3419,17 +3423,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Eden Garden</t>
+          <t>Marvel Cerise</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ganga Nebula</t>
+          <t>Kumar Primavera</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vimannagar</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3449,7 +3453,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>('300', '300')</t>
+          <t>('300', '500')</t>
         </is>
       </c>
     </row>
@@ -3461,17 +3465,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jade Residency</t>
+          <t>Rakshak nagar 1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Vella Bita</t>
+          <t>Mountain Glory</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>wagholi</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3486,12 +3490,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Worst', 'Worst')</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>('300', '100')</t>
+          <t>('400', '300')</t>
         </is>
       </c>
     </row>
@@ -3503,17 +3507,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Anshul Kanvas</t>
+          <t>River Residency</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Oxy Ultima</t>
+          <t>Aishwaryam hamara</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>wagholi</t>
+          <t>moshi</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3528,12 +3532,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Angel', 'Angel')</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>('150', '200')</t>
+          <t>('1300', '1100')</t>
         </is>
       </c>
     </row>
@@ -3545,17 +3549,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">River Residency phase 3 </t>
+          <t>Aeropolis</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Krystal City</t>
+          <t>Atria Soc</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>moshi</t>
+          <t>dhanori</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3570,12 +3574,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>('466', '300')</t>
+          <t>('330', '330')</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3591,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>River Residency</t>
+          <t>Gera Trinity Tower</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Aishwaryam hamara</t>
+          <t>Alcon Renaissant</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>moshi</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3612,12 +3616,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>('Angel', 'Angel')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>('1300', '1100')</t>
+          <t>('250', '200')</t>
         </is>
       </c>
     </row>
@@ -3629,17 +3633,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ganga archadia</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Rakshak nagar 1</t>
-        </is>
-      </c>
+          <t>XERBIA</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>chakan</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Angel', None)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>('150', '400')</t>
+          <t>('1200', None)</t>
         </is>
       </c>
     </row>
@@ -3713,17 +3713,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Rohan Garima</t>
+          <t xml:space="preserve">Mahadkar residency </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Suyog nagar</t>
+          <t xml:space="preserve">Westend village </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>sb road</t>
+          <t>bhusari colony</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>('190', '200')</t>
+          <t>('150', '200')</t>
         </is>
       </c>
     </row>
@@ -3755,17 +3755,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RamyaNagri</t>
+          <t>Rohan Garima</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Suyog Aditya</t>
+          <t>Suyog nagar</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>bibwewadi</t>
+          <t>sb road</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>('430', '96')</t>
+          <t>('190', '200')</t>
         </is>
       </c>
     </row>
@@ -3797,17 +3797,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Parth Enclave</t>
+          <t>ICS, revenue colony</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sudarshan </t>
+          <t>Bhosalenagar</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>karvenagar</t>
+          <t>bhosalenagar</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>('200', '84')</t>
+          <t>('200', '200')</t>
         </is>
       </c>
     </row>
@@ -3957,17 +3957,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Amrutwel</t>
+          <t>9 green park</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Hill View</t>
+          <t>Ruturang-Aranyeshwar</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>warje</t>
+          <t>sahakarnagar</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>('150', '350')</t>
+          <t>('120', '150')</t>
         </is>
       </c>
     </row>
@@ -3999,17 +3999,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Soba Savera</t>
+          <t>Parth Enclave</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Gangadham Phase 2</t>
+          <t xml:space="preserve">Sudarshan </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>bibwewadi</t>
+          <t>karvenagar</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>('150', '740')</t>
+          <t>('200', '84')</t>
         </is>
       </c>
     </row>
@@ -4041,17 +4041,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>9 green park</t>
+          <t>Amrutwel</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ruturang-Aranyeshwar</t>
+          <t>Hill View</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>sahakarnagar</t>
+          <t>warje</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>('120', '150')</t>
+          <t>('150', '350')</t>
         </is>
       </c>
     </row>
@@ -4083,13 +4083,13 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>COEP</t>
+          <t>Aditya Garden City</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>shivajinagar</t>
+          <t>warje</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>('1000', None)</t>
+          <t>('1014', None)</t>
         </is>
       </c>
     </row>
@@ -4121,17 +4121,13 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ICS, revenue colony</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Bhosalenagar</t>
-        </is>
-      </c>
+          <t>COEP</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>bhosalenagar</t>
+          <t>shivajinagar</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4146,12 +4142,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Angel', None)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>('200', '200')</t>
+          <t>('1000', None)</t>
         </is>
       </c>
     </row>
@@ -4163,17 +4159,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rahul Nisarg</t>
+          <t>Sun Empire</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Saarthi Sinclair</t>
+          <t>Sun City</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>warje</t>
+          <t>sinhagad road</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4193,7 +4189,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>('350', '150')</t>
+          <t>('450', '400')</t>
         </is>
       </c>
     </row>
@@ -4205,17 +4201,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sarthi Sinclair</t>
+          <t>Mahatma Soc</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Shriram Soc</t>
+          <t>Sigma One</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>warje</t>
+          <t>kothrud</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4235,7 +4231,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>('200', '200')</t>
+          <t>('300', '132')</t>
         </is>
       </c>
     </row>
@@ -4247,17 +4243,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SUYOG Aura</t>
+          <t xml:space="preserve">Sun Universe </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Tejowalay</t>
+          <t>Sudatta sankul</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>warje</t>
+          <t>sinhagad road</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4277,7 +4273,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>('200', '300')</t>
+          <t>('750', '180')</t>
         </is>
       </c>
     </row>
@@ -4289,17 +4285,13 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ishan Srushti</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Karan Palms+Greens</t>
-        </is>
-      </c>
+          <t>Shantikunj Soc</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>warje</t>
+          <t>camp</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4314,12 +4306,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Worst', None)</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>('200', '300')</t>
+          <t>('100', None)</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4323,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Viola</t>
+          <t>Aditya Garden City</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4352,12 +4344,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Angel', None)</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>('250', None)</t>
+          <t>('1014', None)</t>
         </is>
       </c>
     </row>

--- a/PWS/PWWS/excel_files_bay/data3.xlsx
+++ b/PWS/PWWS/excel_files_bay/data3.xlsx
@@ -525,17 +525,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sancheti Belcastle</t>
+          <t>Green County</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PGD Pinnacle</t>
+          <t>Majestic aqua</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>mundhwa</t>
+          <t>phursungi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,12 +550,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>('100', '100')</t>
+          <t>('100', '450')</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sicilia</t>
+          <t>Sancheti Belcastle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yellow blossoms </t>
+          <t>PGD Pinnacle</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ghorpadi</t>
+          <t>mundhwa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>('260', '260')</t>
+          <t>('100', '100')</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Green County</t>
+          <t>Sicilia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Majestic aqua</t>
+          <t xml:space="preserve">Yellow blossoms </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>phursungi</t>
+          <t>ghorpadi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>('100', '450')</t>
+          <t>('260', '260')</t>
         </is>
       </c>
     </row>
@@ -967,22 +967,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ivory Estate</t>
+          <t>Ganga archadia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DSK Gandhkosh</t>
+          <t>Rakshak nagar 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>baner</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>North</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>('500', '280')</t>
+          <t>('150', '400')</t>
         </is>
       </c>
     </row>
@@ -1009,22 +1009,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Life Montage</t>
+          <t>Rakshak nagar 2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Windows</t>
+          <t>Mountain Glory</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>sus</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>North</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>('400', '320')</t>
+          <t>('400', '300')</t>
         </is>
       </c>
     </row>
@@ -1051,22 +1051,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antelia </t>
+          <t>Marvel Cerise</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nyati Equatorial</t>
+          <t>Kumar Primavera</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>bavdhan</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>North</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>('200', '300')</t>
+          <t>('300', '500')</t>
         </is>
       </c>
     </row>
@@ -1093,22 +1093,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kalpataru Splendour</t>
+          <t>River Residency</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Millenium Acropolis</t>
+          <t>Aishwaryam hamara</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>wakad</t>
+          <t>moshi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>North</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Angel', 'Angel')</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>('327', '181')</t>
+          <t>('1300', '1100')</t>
         </is>
       </c>
     </row>
@@ -1135,22 +1135,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Blue Ridge</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Life Republic 7</t>
-        </is>
-      </c>
+          <t>Forest County</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hinjewadi</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>North</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1160,12 +1156,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>('Angel', 'Angel')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>('800', '850')</t>
+          <t>('800', None)</t>
         </is>
       </c>
     </row>
@@ -1177,22 +1173,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Roseland residency</t>
+          <t>Ivy Estate</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rose Icon</t>
+          <t>umang premier</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>pimple saudagar</t>
+          <t>wagholi</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>North</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1202,12 +1198,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>('Angel', 'Angel')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>('900', '1000')</t>
+          <t>('800', '800')</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1257,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aditya Comfort Zon</t>
+          <t>Kunal Aspiree</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Supreme palms</t>
+          <t>Perfect 10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>baner</t>
+          <t>balewadi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1291,7 +1287,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>('550', '250')</t>
+          <t>('200', '280')</t>
         </is>
       </c>
     </row>
@@ -1303,13 +1299,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Yogiraj Foundation</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>Mont Vert</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Kumar Picadilly</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>talegao</t>
+          <t>wakad</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>('200', None)</t>
+          <t>('400', '250')</t>
         </is>
       </c>
     </row>
@@ -1341,13 +1341,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Forest trails</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Peace Valley</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Aureate</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>bhugaon</t>
+          <t>pimple saudagar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1362,12 +1366,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>('250', None)</t>
+          <t>('280', '120')</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1383,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Blue Ridge</t>
+          <t>Roseland residency</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Life Republic 7</t>
+          <t>Rose Icon</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>hinjewadi</t>
+          <t>pimple saudagar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1409,7 +1413,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>('800', '850')</t>
+          <t>('900', '1000')</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1425,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Roseland residency</t>
+          <t>Blue Ridge</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rose Icon</t>
+          <t>Life Republic 7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>pimple saudagar</t>
+          <t>hinjewadi</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1451,7 +1455,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>('900', '1000')</t>
+          <t>('800', '850')</t>
         </is>
       </c>
     </row>
@@ -1463,17 +1467,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sudarshan </t>
+          <t>Sukhwani Sepia</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pinnac Anand </t>
+          <t>Kalpataru Splendour</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>karvenagar</t>
+          <t>wakad</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1493,7 +1497,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>('84', '150')</t>
+          <t>('200', '327')</t>
         </is>
       </c>
     </row>
@@ -1505,17 +1509,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kunal Aspiree</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Perfect 10</t>
-        </is>
-      </c>
+          <t>Forest trails</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>balewadi</t>
+          <t>bhugaon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1530,12 +1530,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>('200', '280')</t>
+          <t>('250', None)</t>
         </is>
       </c>
     </row>
@@ -1547,17 +1547,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mont Vert</t>
+          <t>Kapil Abhijat</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kumar Picadilly</t>
+          <t>Himali Soc</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>wakad</t>
+          <t>kothrud</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>('400', '250')</t>
+          <t>('250', '300')</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1589,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Peace Valley</t>
+          <t>Shivam Society</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aureate</t>
+          <t>Rajveer Palace</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>('280', '120')</t>
+          <t>('160', '200')</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1673,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Blue Ridge</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Life Republic 7</t>
-        </is>
-      </c>
+          <t>Elementa</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>hinjewadi</t>
+          <t>wakad</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1698,12 +1694,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>('Angel', 'Angel')</t>
+          <t>('Angel', None)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>('800', '850')</t>
+          <t>('900', None)</t>
         </is>
       </c>
     </row>
@@ -1715,17 +1711,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ambience Antelia</t>
+          <t>Life Montage</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Anant Shilp</t>
+          <t>Windows</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>bavdhan</t>
+          <t>sus</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1745,7 +1741,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>('200', '200')</t>
+          <t>('400', '320')</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1753,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Iris</t>
+          <t>Uday HillTop</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mont vert biaritz phase 1</t>
+          <t>Hallmark Soc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>baner</t>
+          <t>ravet</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1787,7 +1783,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>('200', '88')</t>
+          <t>('225', '300')</t>
         </is>
       </c>
     </row>
@@ -1799,17 +1795,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gera Empress</t>
+          <t>The Cliff Garden</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rohan leher</t>
+          <t>The Crown Greens</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>baner</t>
+          <t>hinjewadi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1829,7 +1825,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>('200', '300')</t>
+          <t>('600', '190')</t>
         </is>
       </c>
     </row>
@@ -1841,17 +1837,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sukhwani Sepia</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Lakshmi deep</t>
-        </is>
-      </c>
+          <t>Goodwill Soc</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>wakad</t>
+          <t>ravet</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1866,12 +1858,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>('200', '228')</t>
+          <t>('250', None)</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1875,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Blue Ridge</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Life Republic 7</t>
-        </is>
-      </c>
+          <t>Elementa</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>hinjewadi</t>
+          <t>wakad</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1908,12 +1896,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>('Angel', 'Angel')</t>
+          <t>('Angel', None)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>('800', '850')</t>
+          <t>('900', None)</t>
         </is>
       </c>
     </row>
@@ -1925,17 +1913,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Roseland residency</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Rose Icon</t>
-        </is>
-      </c>
+          <t>Yogiraj Foundation</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>pimple saudagar</t>
+          <t>talegao</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1950,12 +1934,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>('Angel', 'Angel')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>('900', '1000')</t>
+          <t>('200', None)</t>
         </is>
       </c>
     </row>
@@ -2009,17 +1993,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aditya Comfort Zon</t>
+          <t>Kunal Aspiree</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Supreme palms</t>
+          <t>Perfect 10</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>baner</t>
+          <t>balewadi</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2039,7 +2023,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>('550', '250')</t>
+          <t>('200', '280')</t>
         </is>
       </c>
     </row>
@@ -2051,13 +2035,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Yogiraj Foundation</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>Mont Vert</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Kumar Picadilly</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>talegao</t>
+          <t>wakad</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2072,12 +2060,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>('200', None)</t>
+          <t>('400', '250')</t>
         </is>
       </c>
     </row>
@@ -2089,13 +2077,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Forest trails</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>Peace Valley</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Aureate</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>bhugaon</t>
+          <t>pimple saudagar</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2110,12 +2102,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>('250', None)</t>
+          <t>('280', '120')</t>
         </is>
       </c>
     </row>
@@ -2127,17 +2119,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Blue Ridge</t>
+          <t>Roseland residency</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Life Republic 7</t>
+          <t>Rose Icon</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>hinjewadi</t>
+          <t>pimple saudagar</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2157,7 +2149,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>('800', '850')</t>
+          <t>('900', '1000')</t>
         </is>
       </c>
     </row>
@@ -2169,17 +2161,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Roseland residency</t>
+          <t>Blue Ridge</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rose Icon</t>
+          <t>Life Republic 7</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>pimple saudagar</t>
+          <t>hinjewadi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2199,7 +2191,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>('900', '1000')</t>
+          <t>('800', '850')</t>
         </is>
       </c>
     </row>
@@ -2253,13 +2245,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sai park</t>
+          <t>Ajinkyatara</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>katraj</t>
+          <t>narhe</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2279,7 +2271,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>('150', None)</t>
+          <t>('350', None)</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2325,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vitthal Heritage</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Lake Vista</t>
-        </is>
-      </c>
+          <t>Sai park</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ambegaon</t>
+          <t>katraj</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2358,12 +2346,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>('250', '650')</t>
+          <t>('150', None)</t>
         </is>
       </c>
     </row>
@@ -2375,17 +2363,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sai Mystique</t>
+          <t>Colori</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Astonia Royale</t>
+          <t>38 Majestique</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ambegaon</t>
+          <t>undri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2405,7 +2393,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>('325', '500')</t>
+          <t>('250', '100')</t>
         </is>
       </c>
     </row>
@@ -2417,12 +2405,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Amit Bloomfield</t>
+          <t>Vitthal Heritage</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sun Fantasy</t>
+          <t>Lake Vista</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2447,7 +2435,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>('600', '150')</t>
+          <t>('250', '650')</t>
         </is>
       </c>
     </row>
@@ -2459,13 +2447,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ajinkyatara</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Sai Mystique</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Astonia Royale</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>narhe</t>
+          <t>ambegaon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2480,12 +2472,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>('350', None)</t>
+          <t>('325', '500')</t>
         </is>
       </c>
     </row>
@@ -2497,17 +2489,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Colori</t>
+          <t>Amit Bloomfield</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>38 Majestique</t>
+          <t>Sun Fantasy</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>undri</t>
+          <t>ambegaon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2527,7 +2519,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>('250', '100')</t>
+          <t>('600', '150')</t>
         </is>
       </c>
     </row>
@@ -2539,14 +2531,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Granduere</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Sundar sahawas</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Rajyog phase 2</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>dhayari</t>
@@ -2564,12 +2556,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>('Worst', 'Worst')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>('150', '100')</t>
+          <t>('250', '150')</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2615,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Granduere</t>
+          <t>Rajyog phase 2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2644,12 +2636,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Worst', None)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>('250', None)</t>
+          <t>('100', None)</t>
         </is>
       </c>
     </row>
@@ -2687,18 +2679,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sai residency</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>Sun Empire</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sun City</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>lohegao</t>
+          <t>sinhagad road</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2708,12 +2704,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>('120', None)</t>
+          <t>('450', '400')</t>
         </is>
       </c>
     </row>
@@ -2725,22 +2721,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IVY Estate</t>
+          <t xml:space="preserve">Sun Universe </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Jade Residency</t>
+          <t>Sudatta sankul</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>wagholi</t>
+          <t>sinhagad road</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2755,7 +2751,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>('800', '300')</t>
+          <t>('750', '180')</t>
         </is>
       </c>
     </row>
@@ -2767,22 +2763,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pride Aashiyana</t>
+          <t>Kumar parisar</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Goodwill 24 CHS</t>
+          <t>Springfield</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>dhanori</t>
+          <t>kothrud</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2797,7 +2793,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>('450', '250')</t>
+          <t>('200', '250')</t>
         </is>
       </c>
     </row>
@@ -2809,22 +2805,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rohan Mithila- E1-E9</t>
+          <t>Meenaxipuram</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rohan Mithila-A-Y</t>
+          <t>Swara nagri</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vimannagar</t>
+          <t>sinhagad road</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2834,12 +2830,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>('200', '200')</t>
+          <t>('250', '250')</t>
         </is>
       </c>
     </row>
@@ -2851,18 +2847,18 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Forest County</t>
+          <t>Aditya Garden City</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>warje</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2872,12 +2868,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Angel', None)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>('800', None)</t>
+          <t>('1014', None)</t>
         </is>
       </c>
     </row>
@@ -2889,22 +2885,18 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ivy Estate</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>umang premier</t>
-        </is>
-      </c>
+          <t>COEP</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>wagholi</t>
+          <t>shivajinagar</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2914,12 +2906,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Angel', None)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>('800', '800')</t>
+          <t>('1000', None)</t>
         </is>
       </c>
     </row>
@@ -2973,17 +2965,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Anshul Kanvas</t>
+          <t xml:space="preserve">River Residency phase 3 </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Oxy Ultima</t>
+          <t>Krystal City</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>wagholi</t>
+          <t>moshi</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3003,7 +2995,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>('150', '200')</t>
+          <t>('466', '300')</t>
         </is>
       </c>
     </row>
@@ -3015,17 +3007,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tirupati Campus</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Nyati Environ</t>
-        </is>
-      </c>
+          <t>Sai residency</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>tingrenagar</t>
+          <t>lohegao</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3040,12 +3028,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>('200', '200')</t>
+          <t>('120', None)</t>
         </is>
       </c>
     </row>
@@ -3057,17 +3045,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veeroday society </t>
+          <t>Anshul Kanvas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Marvel Zephyr</t>
+          <t>Oxy Ultima</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>wagholi</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,7 +3075,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>('100', '200')</t>
+          <t>('150', '200')</t>
         </is>
       </c>
     </row>
@@ -3099,13 +3087,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Forest County</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Ivy Estate</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>umang premier</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>wagholi</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3120,12 +3112,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>('800', None)</t>
+          <t>('800', '800')</t>
         </is>
       </c>
     </row>
@@ -3137,14 +3129,10 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kumar Primrose</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcon Renaissant </t>
-        </is>
-      </c>
+          <t>Forest County</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>kharadi</t>
@@ -3162,12 +3150,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>('200', '200')</t>
+          <t>('800', None)</t>
         </is>
       </c>
     </row>
@@ -3179,17 +3167,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Rohan mithila A-Y</t>
+          <t>Tirupati Campus</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Little Millenium School</t>
+          <t>Nyati Environ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vimanagar</t>
+          <t>tingrenagar</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3204,12 +3192,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>('350', '0')</t>
+          <t>('200', '200')</t>
         </is>
       </c>
     </row>
@@ -3221,17 +3209,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">River Residency phase 3 </t>
+          <t>Eden Garden</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Krystal City</t>
+          <t>Ganga Nebula</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>moshi</t>
+          <t>vimannagar</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3251,7 +3239,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>('466', '300')</t>
+          <t>('300', '300')</t>
         </is>
       </c>
     </row>
@@ -3263,17 +3251,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ganga archadia</t>
+          <t>Rohan Mithila- E1-E9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Rakshak nagar 2</t>
+          <t>Konark Nagar</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>vimannagar</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3293,7 +3281,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>('150', '400')</t>
+          <t>('200', '300')</t>
         </is>
       </c>
     </row>
@@ -3305,17 +3293,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Marvel citine</t>
+          <t>Jade Residency</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Nyati empire</t>
+          <t>Vella Bita</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>wagholi</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3335,7 +3323,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>('200', '300')</t>
+          <t>('300', '100')</t>
         </is>
       </c>
     </row>
@@ -3347,13 +3335,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Forest County</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>Ivy Estate</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>umang premier</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>wagholi</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3368,12 +3360,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>('Medium', None)</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>('800', None)</t>
+          <t>('800', '800')</t>
         </is>
       </c>
     </row>
@@ -3423,12 +3415,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Marvel Cerise</t>
+          <t>Marvel citine</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Kumar Primavera</t>
+          <t>Nyati empire</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3453,7 +3445,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>('300', '500')</t>
+          <t>('200', '300')</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3457,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rakshak nagar 1</t>
+          <t xml:space="preserve">Veeroday society </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Mountain Glory</t>
+          <t>Marvel Zephyr</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3490,12 +3482,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>('Worst', 'Worst')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>('400', '300')</t>
+          <t>('100', '200')</t>
         </is>
       </c>
     </row>
@@ -3507,17 +3499,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>River Residency</t>
+          <t>Rohan mithila A-Y</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Aishwaryam hamara</t>
+          <t>Little Millenium School</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>moshi</t>
+          <t>vimanagar</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3532,12 +3524,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>('Angel', 'Angel')</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>('1300', '1100')</t>
+          <t>('350', '0')</t>
         </is>
       </c>
     </row>
@@ -3549,17 +3541,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Aeropolis</t>
+          <t>Kumar Primrose</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Atria Soc</t>
+          <t xml:space="preserve">Alcon Renaissant </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>dhanori</t>
+          <t>kharadi</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3574,12 +3566,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>('Medium', 'Worst')</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>('330', '330')</t>
+          <t>('200', '200')</t>
         </is>
       </c>
     </row>
@@ -3591,17 +3583,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Gera Trinity Tower</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Alcon Renaissant</t>
-        </is>
-      </c>
+          <t>XERBIA</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>kharadi</t>
+          <t>chakan</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3616,12 +3604,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>('Medium', 'Medium')</t>
+          <t>('Angel', None)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>('250', '200')</t>
+          <t>('1200', None)</t>
         </is>
       </c>
     </row>
@@ -3633,13 +3621,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>XERBIA</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>Ivy Estate</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>umang premier</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>chakan</t>
+          <t>wagholi</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3654,12 +3646,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>('Angel', None)</t>
+          <t>('Medium', 'Worst')</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>('1200', None)</t>
+          <t>('800', '800')</t>
         </is>
       </c>
     </row>
@@ -3755,17 +3747,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Rohan Garima</t>
+          <t>Himali Soc</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Suyog nagar</t>
+          <t>Ruturang soc</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>sb road</t>
+          <t>kothrud</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3785,7 +3777,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>('190', '200')</t>
+          <t>('300', '260')</t>
         </is>
       </c>
     </row>
@@ -3797,17 +3789,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ICS, revenue colony</t>
+          <t>Amrutwel</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Bhosalenagar</t>
+          <t>Hill View</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>bhosalenagar</t>
+          <t>warje</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3827,7 +3819,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>('200', '200')</t>
+          <t>('150', '350')</t>
         </is>
       </c>
     </row>
@@ -3915,17 +3907,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Himali Soc</t>
+          <t>Ishan Srushti</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ruturang soc</t>
+          <t>Karan Palms+Greens</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>kothrud</t>
+          <t>warje</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3945,7 +3937,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>('300', '260')</t>
+          <t>('200', '300')</t>
         </is>
       </c>
     </row>
@@ -3957,17 +3949,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>9 green park</t>
+          <t>Parth Enclave</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ruturang-Aranyeshwar</t>
+          <t xml:space="preserve">Sudarshan </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>sahakarnagar</t>
+          <t>karvenagar</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3987,7 +3979,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>('120', '150')</t>
+          <t>('200', '84')</t>
         </is>
       </c>
     </row>
@@ -3999,17 +3991,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Parth Enclave</t>
+          <t>Rohan Garima</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sudarshan </t>
+          <t>Suyog nagar</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>karvenagar</t>
+          <t>sb road</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4029,7 +4021,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>('200', '84')</t>
+          <t>('190', '200')</t>
         </is>
       </c>
     </row>
@@ -4041,17 +4033,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Amrutwel</t>
+          <t>ICS, revenue colony</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Hill View</t>
+          <t>Bhosalenagar</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>warje</t>
+          <t>bhosalenagar</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4071,7 +4063,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>('150', '350')</t>
+          <t>('200', '200')</t>
         </is>
       </c>
     </row>
@@ -4083,13 +4075,13 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Aditya Garden City</t>
+          <t>COEP</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>warje</t>
+          <t>shivajinagar</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4109,7 +4101,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>('1014', None)</t>
+          <t>('1000', None)</t>
         </is>
       </c>
     </row>
@@ -4121,18 +4113,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COEP</t>
+          <t>DSK Vishwa</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>shivajinagar</t>
+          <t>dhayari</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4142,12 +4134,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>('Angel', None)</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>('1000', None)</t>
+          <t>('700', None)</t>
         </is>
       </c>
     </row>
@@ -4159,17 +4151,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sun Empire</t>
+          <t>9 green park</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sun City</t>
+          <t>Ruturang-Aranyeshwar</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>sinhagad road</t>
+          <t>sahakarnagar</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4189,7 +4181,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>('450', '400')</t>
+          <t>('120', '150')</t>
         </is>
       </c>
     </row>
@@ -4201,17 +4193,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mahatma Soc</t>
+          <t>Soba Savera</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sigma One</t>
+          <t>Gangadham Phase 2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>kothrud</t>
+          <t>bibwewadi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4231,7 +4223,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>('300', '132')</t>
+          <t>('150', '740')</t>
         </is>
       </c>
     </row>
@@ -4243,17 +4235,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sun Universe </t>
+          <t>RamyaNagri</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sudatta sankul</t>
+          <t>Suyog Aditya</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>sinhagad road</t>
+          <t>bibwewadi</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4273,7 +4265,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>('750', '180')</t>
+          <t>('430', '96')</t>
         </is>
       </c>
     </row>
@@ -4323,13 +4315,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Aditya Garden City</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>Mahatma Soc</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sigma One</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>warje</t>
+          <t>kothrud</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4344,12 +4340,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>('Angel', None)</t>
+          <t>('Medium', 'Medium')</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>('1014', None)</t>
+          <t>('300', '132')</t>
         </is>
       </c>
     </row>
@@ -4361,18 +4357,18 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>COEP</t>
+          <t>DSK Vishwa</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>shivajinagar</t>
+          <t>dhayari</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4382,12 +4378,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>('Angel', None)</t>
+          <t>('Medium', None)</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>('1000', None)</t>
+          <t>('700', None)</t>
         </is>
       </c>
     </row>
